--- a/temp/pages/StructureDefinition-MedicationRequest.xlsx
+++ b/temp/pages/StructureDefinition-MedicationRequest.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/StructureDefinition/MedicationRequest</t>
+    <t>http://br-ipes.com/fhir/StructureDefinition/MedicationRequest</t>
   </si>
   <si>
     <t>Version</t>
